--- a/biology/Botanique/Nertera/Nertera.xlsx
+++ b/biology/Botanique/Nertera/Nertera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nertera est un genre d'environ 15 espèces de plantes à fleurs de la famille des Rubiacées, originaire de l'Hémisphère Sud, à savoir l'Amérique du Sud et de l'Australasie, mais dont une espèce est largement répandue dans l'Hémisphère Nord, en Amérique Centrale, dans l'est de l'Asie, et à Hawaï.
 Le nom dérive du grec mot nerteros.
@@ -514,15 +526,17 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (16 décembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (16 décembre 2018) :
 Nertera balfouriana Cockayne &amp; Allan
 Nertera ciliata
 Nertera cunninghamii Hook.f.
 Nertera dichondrifolia Hook.f.
 Nertera setulosa Hook.f.
-Selon Catalogue of Life                                   (16 décembre 2018)[3] :
+Selon Catalogue of Life                                   (16 décembre 2018) :
 Nertera balfouriana Cockayne
 Nertera ciliata Kirk
 Nertera cunninghamii Hook.f.
@@ -532,12 +546,12 @@
 Nertera nigricarpa Hayata
 Nertera sinensis Hemsl.
 Nertera villosa B.H.Macmill. &amp; R.Mason
-Selon GRIN            (16 décembre 2018)[4] :
+Selon GRIN            (16 décembre 2018) :
 Nertera balfouriana Cockayne
 Nertera granadensis (Mutis ex L. f.) Druce
-Selon ITIS      (16 décembre 2018)[5] :
+Selon ITIS      (16 décembre 2018) :
 Nertera granadensis (Mutis ex L. f.) Druce
-Selon World Checklist of Selected Plant Families (WCSP)  (16 décembre 2018)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (16 décembre 2018) :
 Nertera balfouriana Cockayne (1911 publ. 1912)
 Nertera ciliata Kirk (1899)
 Nertera cunninghamii Hook.f. (1852)
@@ -550,7 +564,7 @@
 Nertera scapanioides Lange, Index Seminum (C (1869)
 Nertera sinensis Hemsl., J. Linn. Soc. (1888)
 Nertera villosa B.H.Macmill. &amp; R.Mason (1995 publ. 1996)
-Selon NCBI  (16 décembre 2018)[7] :
+Selon NCBI  (16 décembre 2018) :
 Nertera assurgens Thouars
 Nertera balfouriana Cockayne
 Nertera depressa Gaertn.
@@ -560,7 +574,7 @@
 Nertera nigricarpa Hayata
 Nertera villosa B.H.Macmill. &amp; R.Mason
 Nertera yamashitae Yamazaki
-Selon The Plant List            (16 décembre 2018)[8] :
+Selon The Plant List            (16 décembre 2018) :
 Nertera balfouriana Cockayne
 Nertera ciliata Kirk
 Nertera cunninghamii Hook.f.
@@ -571,7 +585,7 @@
 Nertera sinensis Hemsl. ex F.B.Forbes &amp; Hemsl.
 Nertera villosa B.H.Macmill. &amp; R.Mason
 Nertera yamashitae Yamazaki
-Selon Tropicos                                           (16 décembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Nertera adsurgens DC.
 Nertera alsinoides Schltdl. &amp; Cham.
 Nertera arnottiana (Walp.) B.L. Rob.
